--- a/biology/Botanique/Aecidium/Aecidium.xlsx
+++ b/biology/Botanique/Aecidium/Aecidium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aecidium est un genre de champignons ascomycètes de l’ordre des Pucciniales.
 Ce genre comprend environ 600 espèces, dont de nombreux agents pathogènes des plantes.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
-          <t>Selon Catalogue of Life                                   (3 novembre 2014)[1] :
+          <t>Selon Catalogue of Life                                   (3 novembre 2014) :
 Aecidium abietis-mariesii
 Aecidium abscedens
 Aecidium acalyphae
@@ -1348,7 +1362,7 @@
 Aecidium zonatum
 Aecidium zongaense
 Aecidium zorniae-gibbosae
-Selon Index Fungorum                                      (3 novembre 2014)[2] :
+Selon Index Fungorum                                      (3 novembre 2014) :
 Aecidium abietinum Alb. &amp; Schwein. 1805; Anamorphic Pucciniales
 Aecidium abietis-mariesii Sawada 1950
 Aecidium abroniae Ellis &amp; Everh. ex P. Syd. &amp; Syd. 1924; Anamorphic Pucciniales
@@ -1513,7 +1527,7 @@
 Aecidium baumianum Henn. 1903
 Aecidium begoniae Berndt 1998
 Aecidium behenis DC. 1815; Anamorphic Pucciniales
-Selon NCBI  (3 novembre 2014)[3] :
+Selon NCBI  (3 novembre 2014) :
 Aecidium brachycomes
 Aecidium eburneum
 Aecidium epimedii
